--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_32.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1935342.021685552</v>
+        <v>1991787.716233516</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779843</v>
+        <v>16641689.10798709</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484447</v>
+        <v>492028.9342484439</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5883417.600499352</v>
+        <v>5892692.59325</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>325.0286948427377</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>56.30271741342756</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -823,16 +823,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>18.28928691739486</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>9.57060121402662</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92.68781459557029</v>
+        <v>49.65270159041134</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -959,7 +959,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1060,16 +1060,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>122.9742767430572</v>
       </c>
       <c r="U7" t="n">
-        <v>100.176219543324</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1133,25 +1133,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>320.0331481255876</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>64.11396738868682</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>142.0902352657462</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1370,7 +1370,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>165.7499153537879</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1385,7 +1385,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>18.22772027659479</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1528,7 +1528,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1546,7 +1546,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,10 +1582,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>155.2022955251543</v>
       </c>
       <c r="V13" t="n">
-        <v>246.7023225025377</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>32.670777199071</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1673,7 +1673,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>219.4201062858544</v>
       </c>
     </row>
     <row r="15">
@@ -1765,13 +1765,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>47.90525155920217</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1780,7 +1780,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -1822,13 +1822,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>224.7808493642464</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1895,13 +1895,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>180.5956509507041</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735226111</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2065,7 +2065,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>99.28616603324286</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2081,7 +2081,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2293,7 +2293,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>172.6623007436913</v>
+        <v>172.6623007436958</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170492</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2539,7 +2539,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>99.28616603324332</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>123.2901323038666</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>120.4898091149244</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>27.9735834668218</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2956,7 +2956,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2968,7 +2968,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>58.6618829326304</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3202,7 +3202,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>103.3456594571961</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225774</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3250,7 +3250,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225706</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3481,7 +3481,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>144.4937753855477</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3676,7 +3676,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>18.05677735225723</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946038</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3740,7 +3740,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>384.0290916886132</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3758,7 +3758,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>128.2505517358782</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225785</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>216.9799327937436</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3980,7 +3980,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>246.767530799812</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>33.08339867820333</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4147,7 +4147,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>54.66258501924837</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4192,7 +4192,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>272.0530678421753</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>944.6683834787607</v>
+        <v>973.2914446740353</v>
       </c>
       <c r="C2" t="n">
-        <v>516.086709216029</v>
+        <v>535.1489718574587</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>99.23918703190324</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>69.50484623060248</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021428</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021428</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021428</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021428</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>480.9325081331322</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>1002.975152381411</v>
       </c>
       <c r="L2" t="n">
-        <v>1294.102365436318</v>
+        <v>1002.975152381411</v>
       </c>
       <c r="M2" t="n">
-        <v>1294.102365436318</v>
+        <v>1002.975152381411</v>
       </c>
       <c r="N2" t="n">
-        <v>1294.102365436318</v>
+        <v>1002.975152381411</v>
       </c>
       <c r="O2" t="n">
-        <v>1528.02936532736</v>
+        <v>1002.975152381411</v>
       </c>
       <c r="P2" t="n">
-        <v>1528.02936532736</v>
+        <v>1568.238183299063</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2114.736969257658</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010714</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010714</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010714</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010714</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010714</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>2227.019602279979</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>1807.87713885929</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.980196451223</v>
+        <v>1399.591015158943</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>551.8495656715071</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>445.3931045081493</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>350.3028156547026</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>256.1824009816563</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>172.7985625978179</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>87.41347286400182</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021428</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>71.74149384067188</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>396.2998188068842</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>961.5628497245359</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1591.744804064683</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1708.917582159023</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1645.462144607406</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1515.283500938008</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1338.946953937976</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1139.829435999975</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>954.5066817331694</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>799.6392459720495</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>673.1534667512702</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>141.0776450162207</v>
+        <v>786.2962769768433</v>
       </c>
       <c r="C4" t="n">
-        <v>141.0776450162207</v>
+        <v>786.2962769768433</v>
       </c>
       <c r="D4" t="n">
-        <v>141.0776450162207</v>
+        <v>786.2962769768433</v>
       </c>
       <c r="E4" t="n">
-        <v>141.0776450162207</v>
+        <v>616.5382732275806</v>
       </c>
       <c r="F4" t="n">
-        <v>141.0776450162207</v>
+        <v>439.8312191893368</v>
       </c>
       <c r="G4" t="n">
-        <v>141.0776450162207</v>
+        <v>274.2399442151644</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>134.3377699055389</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021428</v>
       </c>
       <c r="J4" t="n">
-        <v>66.6195087848011</v>
+        <v>45.67782068021428</v>
       </c>
       <c r="K4" t="n">
-        <v>341.3779633559367</v>
+        <v>196.7623387080725</v>
       </c>
       <c r="L4" t="n">
-        <v>341.3779633559367</v>
+        <v>614.9722204760335</v>
       </c>
       <c r="M4" t="n">
-        <v>761.43086230084</v>
+        <v>1074.456087656946</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>1516.714890814591</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1936.384140040373</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2283.891034010714</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010714</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010714</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2124.649665308711</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1878.770218887166</v>
       </c>
       <c r="U4" t="n">
-        <v>1172.870982911978</v>
+        <v>1600.337218140271</v>
       </c>
       <c r="V4" t="n">
-        <v>885.9154747824084</v>
+        <v>1313.381710010701</v>
       </c>
       <c r="W4" t="n">
-        <v>613.8890703687</v>
+        <v>1041.355305596993</v>
       </c>
       <c r="X4" t="n">
-        <v>368.4973157021125</v>
+        <v>795.9635509304055</v>
       </c>
       <c r="Y4" t="n">
-        <v>141.0776450162207</v>
+        <v>786.2962769768433</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>462.0641869984253</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>427.9621182222527</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>396.0927374371013</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>366.3583966358005</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1437.961127397434</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>1075.344177331261</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W5" t="n">
-        <v>670.4887227422939</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X5" t="n">
-        <v>655.3866633620087</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y5" t="n">
-        <v>247.1005396616621</v>
+        <v>512.2184310291439</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.3833729168607</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C7" t="n">
-        <v>199.8216614000857</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1292.259348259376</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="U7" t="n">
-        <v>1595.995329531605</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V7" t="n">
-        <v>1309.039821402036</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W7" t="n">
-        <v>1037.013416988327</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X7" t="n">
-        <v>791.6216623217397</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y7" t="n">
-        <v>564.2019916358479</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>442.640221925911</v>
+        <v>2076.000019869234</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>1637.857547052657</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>1201.947762227101</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W8" t="n">
-        <v>1292.327975491451</v>
+        <v>2521.647369394369</v>
       </c>
       <c r="X8" t="n">
-        <v>1277.225916111165</v>
+        <v>2506.545310014084</v>
       </c>
       <c r="Y8" t="n">
-        <v>868.9397924108188</v>
+        <v>2502.299590354141</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1113.00182921349</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>940.4401176967148</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>509.954387939391</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1532.240118618369</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1532.240118618369</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1532.240118618369</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1532.240118618369</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1532.240118618369</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1532.240118618369</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1304.820447932477</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2252.656868168566</v>
+        <v>2252.656868168568</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.232711245548</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1378.604610526436</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>944.829865684731</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6807519874951</v>
+        <v>516.9624360939388</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2829206107589</v>
+        <v>115.5646047172022</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397516</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J11" t="n">
         <v>531.9906641340331</v>
@@ -5048,43 +5048,43 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="N11" t="n">
-        <v>2481.810506693461</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="O11" t="n">
-        <v>3461.990173263767</v>
+        <v>3461.990173263769</v>
       </c>
       <c r="P11" t="n">
-        <v>4290.300048097163</v>
+        <v>4290.300048097165</v>
       </c>
       <c r="Q11" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239595</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112633</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.85743042965</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363476</v>
+        <v>3911.240480363478</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.38502577451</v>
+        <v>3506.385025774512</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.24256235382</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653473</v>
+        <v>2678.956438653476</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5112,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
@@ -5121,10 +5121,10 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
         <v>1102.064021433509</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1003.232425776221</v>
+        <v>1087.134188067672</v>
       </c>
       <c r="C13" t="n">
-        <v>1003.232425776221</v>
+        <v>914.5724765508967</v>
       </c>
       <c r="D13" t="n">
-        <v>837.3544329777442</v>
+        <v>748.6944837524195</v>
       </c>
       <c r="E13" t="n">
-        <v>667.5964292284815</v>
+        <v>578.9364800031567</v>
       </c>
       <c r="F13" t="n">
-        <v>490.8893751902377</v>
+        <v>402.229425964913</v>
       </c>
       <c r="G13" t="n">
-        <v>325.2981002160653</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H13" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J13" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K13" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N13" t="n">
         <v>1778.026668523459</v>
@@ -5230,19 +5230,19 @@
         <v>2467.51614016237</v>
       </c>
       <c r="U13" t="n">
-        <v>2189.083139415475</v>
+        <v>2310.746144682416</v>
       </c>
       <c r="V13" t="n">
-        <v>1939.888874261396</v>
+        <v>2023.790636552847</v>
       </c>
       <c r="W13" t="n">
-        <v>1667.862469847688</v>
+        <v>1751.764232139138</v>
       </c>
       <c r="X13" t="n">
-        <v>1422.4707151811</v>
+        <v>1506.372477472551</v>
       </c>
       <c r="Y13" t="n">
-        <v>1195.051044495209</v>
+        <v>1278.952806786659</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062124</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.232711245548</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419992</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F14" t="n">
-        <v>787.6807519874951</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J14" t="n">
         <v>531.9906641340331</v>
@@ -5291,37 +5291,37 @@
         <v>2441.40092234507</v>
       </c>
       <c r="O14" t="n">
-        <v>3421.580588915377</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P14" t="n">
-        <v>4249.890463748773</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q14" t="n">
-        <v>4796.389249707368</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4803.798049006191</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T14" t="n">
-        <v>4803.798049006191</v>
+        <v>4616.731606928798</v>
       </c>
       <c r="U14" t="n">
-        <v>4544.575746323208</v>
+        <v>4357.509304245815</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.958796257035</v>
+        <v>3994.892354179641</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.103341668068</v>
+        <v>3590.036899590675</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.960878247379</v>
+        <v>3170.894436169986</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.674754547032</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="15">
@@ -5349,7 +5349,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
@@ -5358,19 +5358,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>866.1339592341084</v>
+        <v>1051.621568765315</v>
       </c>
       <c r="C16" t="n">
-        <v>693.5722477173333</v>
+        <v>1003.232425776222</v>
       </c>
       <c r="D16" t="n">
-        <v>527.6942549188559</v>
+        <v>837.3544329777443</v>
       </c>
       <c r="E16" t="n">
-        <v>527.6942549188559</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="F16" t="n">
-        <v>350.9872008806121</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G16" t="n">
-        <v>185.3959259064398</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3959259064398</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N16" t="n">
         <v>1778.026668523459</v>
@@ -5464,22 +5464,22 @@
         <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.274771460366</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.841770713471</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V16" t="n">
-        <v>1802.790407719283</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W16" t="n">
-        <v>1530.764003305575</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X16" t="n">
-        <v>1285.372248638987</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="Y16" t="n">
-        <v>1057.952577953095</v>
+        <v>1243.440187484302</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2525.22255580238</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2087.080082985804</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1651.170298160248</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1217.395553318543</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.528123727751</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>388.1302923510149</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>99.00013779423108</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742889</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832467</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2443.248294085327</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2443.248294085327</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2443.248294085327</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3385.204695523508</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4213.514570356903</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4760.013356315498</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068554</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.515547252391</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4625.44832012543</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4366.226017442446</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4183.806167997291</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3778.950713408324</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3359.808249987635</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2951.522126287288</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126639</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493061</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958594</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228131</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389747</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051586</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818287</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.205346548041</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679165</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132063</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.058994492427</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1177.641509033253</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>1005.079797516477</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>839.2018047180002</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>669.4438009687374</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>492.7367469304936</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>327.1454719563212</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>187.2432976466957</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860609</v>
+        <v>188.8405254354724</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571966</v>
+        <v>463.598980006608</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251576</v>
+        <v>881.808861774569</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955482</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489497</v>
+        <v>2203.220781338908</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459839</v>
+        <v>2550.72767530925</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="R19" t="n">
-        <v>2693.825137029543</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S19" t="n">
-        <v>2534.583768327539</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2534.583768327539</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2256.150767580645</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1969.195259451075</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1697.168855037367</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1596.879798438132</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1369.46012775224</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
         <v>2090.757574835212</v>
@@ -5738,10 +5738,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5759,43 +5759,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5832,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5920,25 +5920,25 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.22078133891</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173584</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2697.502628878956</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2538.261260176952</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2292.381813755408</v>
       </c>
       <c r="U22" t="n">
         <v>2117.975449367836</v>
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883913</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716163</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2538.261260176948</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2259.828259430053</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1972.872751300484</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1700.846346886775</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407378</v>
       </c>
     </row>
     <row r="26">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>1077.292364523333</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>904.730653006558</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>738.8526602080808</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>569.094656458818</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>392.3876024205742</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>226.7963274464018</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2559.679081471576</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2281.246080724681</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1994.290572595111</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="W28" t="n">
-        <v>1722.264168181403</v>
+        <v>1741.922408594799</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1496.530653928212</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1269.11098324232</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>982.1554751127505</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>809.5937635959757</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>643.7157707974984</v>
+        <v>842.8792965674088</v>
       </c>
       <c r="E31" t="n">
-        <v>643.7157707974984</v>
+        <v>673.121292818146</v>
       </c>
       <c r="F31" t="n">
-        <v>467.0087167592546</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>301.4174417850822</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>161.5152674754568</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6664,7 +6664,7 @@
         <v>1209.575145798642</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1554751127505</v>
+        <v>1209.575145798642</v>
       </c>
     </row>
     <row r="32">
@@ -6707,7 +6707,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>1057.14643235498</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>884.5847208382046</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>718.7067280397273</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>548.9487242904645</v>
       </c>
       <c r="F34" t="n">
-        <v>267.8521152449518</v>
+        <v>372.2416702522207</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>206.6503952780484</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832885</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1248.965051073967</v>
       </c>
     </row>
     <row r="35">
@@ -6917,49 +6917,49 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
         <v>5029.390139722817</v>
@@ -6974,7 +6974,7 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C37" t="n">
         <v>780.1951658309358</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E37" t="n">
         <v>444.5591692831958</v>
@@ -7093,13 +7093,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>188.8405254354693</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>463.5989800066049</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
         <v>1341.292728955479</v>
@@ -7120,13 +7120,13 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
         <v>1889.413325832886</v>
@@ -7151,7 +7151,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7166,7 +7166,7 @@
         <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7184,19 +7184,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
         <v>5029.390139722817</v>
@@ -7205,16 +7205,16 @@
         <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
         <v>2955.199618136697</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>970.9960463903948</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>798.4343348736197</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>462.7983383258797</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>120.5000093134637</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2527.052675911533</v>
+        <v>2472.724095295529</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.910203094957</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D41" t="n">
-        <v>1653.000418269401</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E41" t="n">
-        <v>1219.225673427696</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F41" t="n">
-        <v>791.3582438369036</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G41" t="n">
-        <v>389.9604124601675</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H41" t="n">
-        <v>100.8302579033837</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305237</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834416</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.01844794162</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.078414194479</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="M41" t="n">
-        <v>2665.685099163888</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="N41" t="n">
-        <v>2665.685099163888</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="O41" t="n">
-        <v>3645.864765734194</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P41" t="n">
-        <v>4474.17464056759</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q41" t="n">
-        <v>5020.673426526186</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526186</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S41" t="n">
-        <v>4937.021552710023</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T41" t="n">
-        <v>4807.4755408556</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="U41" t="n">
-        <v>4548.253238172617</v>
+        <v>4493.924657556613</v>
       </c>
       <c r="V41" t="n">
-        <v>4185.636288106443</v>
+        <v>4131.307707490439</v>
       </c>
       <c r="W41" t="n">
-        <v>3780.780833517477</v>
+        <v>3726.452252901473</v>
       </c>
       <c r="X41" t="n">
-        <v>3361.638370096788</v>
+        <v>3307.309789480784</v>
       </c>
       <c r="Y41" t="n">
-        <v>2953.352246396441</v>
+        <v>2899.023665780437</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218165</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584588</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D42" t="n">
-        <v>405.038463505012</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319657</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481273</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143112</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305237</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909813</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571936</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K42" t="n">
-        <v>451.0354666571936</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L42" t="n">
-        <v>451.0354666571936</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M42" t="n">
-        <v>451.0354666571936</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N42" t="n">
-        <v>451.0354666571936</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O42" t="n">
-        <v>451.0354666571936</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282917</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009333</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457716</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788286</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223589</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015796</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.909505607455</v>
+        <v>1035.891962983371</v>
       </c>
       <c r="C43" t="n">
-        <v>778.3477940906799</v>
+        <v>863.3302514665961</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4698012922026</v>
+        <v>697.4522586681187</v>
       </c>
       <c r="E43" t="n">
-        <v>442.7117975429399</v>
+        <v>527.694254918856</v>
       </c>
       <c r="F43" t="n">
-        <v>266.0047435046961</v>
+        <v>350.9872008806122</v>
       </c>
       <c r="G43" t="n">
-        <v>100.4134685305237</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="H43" t="n">
-        <v>100.4134685305237</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305237</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952136</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663491</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343101</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433323</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R43" t="n">
-        <v>2717.073078433323</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S43" t="n">
-        <v>2698.833909390639</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T43" t="n">
-        <v>2452.954462969094</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U43" t="n">
-        <v>2174.521462222199</v>
+        <v>2067.685300879129</v>
       </c>
       <c r="V43" t="n">
-        <v>1887.56595409263</v>
+        <v>1780.729792749559</v>
       </c>
       <c r="W43" t="n">
-        <v>1615.539549678922</v>
+        <v>1508.70338833585</v>
       </c>
       <c r="X43" t="n">
-        <v>1370.147795012334</v>
+        <v>1263.311633669263</v>
       </c>
       <c r="Y43" t="n">
-        <v>1142.728124326442</v>
+        <v>1035.891962983371</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2336.308741984731</v>
+        <v>2522.958394689265</v>
       </c>
       <c r="C44" t="n">
-        <v>1898.166269168154</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D44" t="n">
-        <v>1648.906137047132</v>
+        <v>1648.906137047133</v>
       </c>
       <c r="E44" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.131392205428</v>
       </c>
       <c r="F44" t="n">
-        <v>787.263962614635</v>
+        <v>787.2639626146356</v>
       </c>
       <c r="G44" t="n">
         <v>385.8661312378989</v>
@@ -7655,19 +7655,19 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M44" t="n">
-        <v>2481.810506693463</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N44" t="n">
-        <v>2481.810506693463</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O44" t="n">
-        <v>3461.990173263769</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P44" t="n">
-        <v>4290.300048097165</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q44" t="n">
-        <v>4836.798834055759</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R44" t="n">
         <v>4836.798834055759</v>
@@ -7676,22 +7676,22 @@
         <v>4836.798834055759</v>
       </c>
       <c r="T44" t="n">
-        <v>4616.731606928798</v>
+        <v>4803.381259633332</v>
       </c>
       <c r="U44" t="n">
-        <v>4357.509304245815</v>
+        <v>4544.158956950349</v>
       </c>
       <c r="V44" t="n">
-        <v>3994.892354179641</v>
+        <v>4181.542006884175</v>
       </c>
       <c r="W44" t="n">
-        <v>3590.036899590675</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X44" t="n">
-        <v>3170.894436169986</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y44" t="n">
-        <v>2762.608312469639</v>
+        <v>2949.257965174173</v>
       </c>
     </row>
     <row r="45">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1010.202862318824</v>
+        <v>1175.794137292997</v>
       </c>
       <c r="C46" t="n">
-        <v>837.6411508020494</v>
+        <v>1003.232425776221</v>
       </c>
       <c r="D46" t="n">
-        <v>671.7631580035721</v>
+        <v>837.3544329777442</v>
       </c>
       <c r="E46" t="n">
-        <v>502.0051542543094</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="F46" t="n">
-        <v>325.2981002160653</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G46" t="n">
         <v>325.2981002160653</v>
@@ -7828,28 +7828,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R46" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S46" t="n">
-        <v>2554.154217881911</v>
+        <v>2636.763032946611</v>
       </c>
       <c r="T46" t="n">
-        <v>2308.274771460367</v>
+        <v>2390.883586525066</v>
       </c>
       <c r="U46" t="n">
-        <v>2029.841770713472</v>
+        <v>2112.450585778171</v>
       </c>
       <c r="V46" t="n">
-        <v>1755.040692085012</v>
+        <v>2112.450585778171</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.014287671304</v>
+        <v>1840.424181364463</v>
       </c>
       <c r="X46" t="n">
-        <v>1237.622533004716</v>
+        <v>1595.032426697876</v>
       </c>
       <c r="Y46" t="n">
-        <v>1010.202862318824</v>
+        <v>1367.612756011984</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>527.3158022709888</v>
       </c>
       <c r="L2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>570.9727585026785</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026785</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>90.34648051320403</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>33.00589917494217</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>152.6106242705638</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,19 +8608,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>58.38468441396117</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8696,10 +8696,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N11" t="n">
-        <v>40.81776196807141</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8769,13 +8769,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831379</v>
+        <v>860.035541581457</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>40.81776196807095</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9173,10 +9173,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
-        <v>951.4711125638196</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9480,22 +9480,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10592,10 +10592,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11063,10 +11063,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294903</v>
       </c>
       <c r="M41" t="n">
-        <v>222.835035322636</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11303,13 +11303,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>40.81776196807323</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831379</v>
+        <v>860.035541581457</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>268.011132734623</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>268.0111327346211</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>120.4463752142714</v>
       </c>
       <c r="V13" t="n">
-        <v>37.38363054573614</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.14457787893036</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>184.7831561774887</v>
       </c>
     </row>
     <row r="15">
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>122.9308428424051</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>59.30510368402747</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>178.3951296148076</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627222</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>143.6516710866788</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>102.9863699957344</v>
+        <v>102.9863699957299</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>139.5921776627257</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>143.6516710866783</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>15.21302026266267</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>122.4480280049972</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>161.9268490649754</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>29.111466800441</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>35.15749310933314</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>120.446375214272</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25597,10 +25597,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25628,7 +25628,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>49.73195639979775</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,7 +25679,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>89.61600311981354</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>58.66873794568207</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>184.7831561774879</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25916,7 +25916,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>184.7831561774884</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26035,7 +26035,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>102.9863699957349</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>12.03288520609857</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>515472.1004912393</v>
+        <v>516976.3239662856</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>515472.1004912393</v>
+        <v>517966.4009027727</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>515472.1004912393</v>
+        <v>517966.4009027727</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>493142.405092572</v>
+        <v>493142.4050925721</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>500101.1240347474</v>
+        <v>513953.5781101948</v>
       </c>
     </row>
     <row r="8">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>513953.5781101946</v>
+        <v>513953.5781101948</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>506994.8591680195</v>
+        <v>493142.4050925722</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>493142.4050925722</v>
+        <v>493142.4050925721</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>428917.8559123269</v>
+        <v>428917.8559123268</v>
       </c>
       <c r="C2" t="n">
-        <v>428917.8559123269</v>
+        <v>428917.8559123268</v>
       </c>
       <c r="D2" t="n">
-        <v>428917.8559123269</v>
+        <v>428917.8559123268</v>
       </c>
       <c r="E2" t="n">
-        <v>404419.1183773411</v>
+        <v>404419.1183773412</v>
       </c>
       <c r="F2" t="n">
         <v>404419.1183773411</v>
       </c>
       <c r="G2" t="n">
-        <v>410125.865456011</v>
+        <v>421486.0673098819</v>
       </c>
       <c r="H2" t="n">
         <v>421486.0673098819</v>
@@ -26350,7 +26350,7 @@
         <v>421486.067309882</v>
       </c>
       <c r="O2" t="n">
-        <v>415779.3202312122</v>
+        <v>404419.1183773412</v>
       </c>
       <c r="P2" t="n">
         <v>404419.1183773412</v>
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>191346.1037476931</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>31190.0349374594</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220373</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042850547</v>
+        <v>18928.52796216472</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996332</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>149391.5964256748</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>24846.93678393356</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830677</v>
+        <v>134989.9446130035</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175300.239865111</v>
+        <v>143235.6821366789</v>
       </c>
       <c r="C4" t="n">
-        <v>175300.239865111</v>
+        <v>122130.8532251353</v>
       </c>
       <c r="D4" t="n">
-        <v>175300.239865111</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="E4" t="n">
         <v>13668.38414064833</v>
       </c>
       <c r="F4" t="n">
-        <v>13668.38414064832</v>
+        <v>13668.38414064833</v>
       </c>
       <c r="G4" t="n">
-        <v>13861.25833407853</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="H4" t="n">
         <v>14245.20557049264</v>
@@ -26454,7 +26454,7 @@
         <v>14245.20557049264</v>
       </c>
       <c r="O4" t="n">
-        <v>14052.33137706244</v>
+        <v>13668.38414064833</v>
       </c>
       <c r="P4" t="n">
         <v>13668.38414064833</v>
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>68342.74371696285</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024202</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26506,7 +26506,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319802</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="P5" t="n">
         <v>73519.34227764753</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52001.5272502837</v>
+        <v>25993.32631099199</v>
       </c>
       <c r="C6" t="n">
-        <v>194192.8279099936</v>
+        <v>201384.4431879745</v>
       </c>
       <c r="D6" t="n">
-        <v>194192.8279099936</v>
+        <v>232574.4781254338</v>
       </c>
       <c r="E6" t="n">
-        <v>82876.36993700793</v>
+        <v>155419.7581941341</v>
       </c>
       <c r="F6" t="n">
-        <v>317231.3919590453</v>
+        <v>317154.8334042484</v>
       </c>
       <c r="G6" t="n">
-        <v>315012.0512788399</v>
+        <v>310570.8708320493</v>
       </c>
       <c r="H6" t="n">
-        <v>317119.8681536334</v>
+        <v>329499.3987942141</v>
       </c>
       <c r="I6" t="n">
-        <v>329522.6231335967</v>
+        <v>329499.3987942141</v>
       </c>
       <c r="J6" t="n">
-        <v>218508.1577886066</v>
+        <v>180107.8023685393</v>
       </c>
       <c r="K6" t="n">
-        <v>329522.6231335967</v>
+        <v>304652.4620102805</v>
       </c>
       <c r="L6" t="n">
-        <v>329522.6231335967</v>
+        <v>329499.3987942141</v>
       </c>
       <c r="M6" t="n">
-        <v>133921.4438505291</v>
+        <v>194509.4541812106</v>
       </c>
       <c r="N6" t="n">
-        <v>329522.6231335968</v>
+        <v>329499.3987942141</v>
       </c>
       <c r="O6" t="n">
-        <v>325412.7527709518</v>
+        <v>317154.8334042485</v>
       </c>
       <c r="P6" t="n">
-        <v>317231.3919590454</v>
+        <v>317154.8334042485</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026785</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267139</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,7 +26826,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631546</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="P4" t="n">
         <v>1209.19970851394</v>
@@ -27009,40 +27009,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026785</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>96.54244810517844</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>784.903850993835</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319899</v>
+        <v>69.06079487080547</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811760658</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026785</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.54244810517844</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>784.903850993835</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,25 +27255,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026785</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.54244810517844</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>784.903850993835</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319899</v>
+        <v>69.06079487080547</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811760658</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>97.00787993732098</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27439,10 +27439,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>344.5041826296494</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27543,16 +27543,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>120.2138656491344</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>215.5748727650062</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>329.3487601844884</v>
+        <v>372.3838731896474</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27631,7 +27631,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27780,16 +27780,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27825,10 +27825,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="U7" t="n">
-        <v>175.4724511961017</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>113.7278999628234</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27913,13 +27913,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>336.6929326543902</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>15.55871974923707</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-8.810729923425242e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>2.922225424602705e-12</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-1.307398633798584e-12</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>4.336205468765305e-12</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>527.3158022709888</v>
       </c>
       <c r="L2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>570.9727585026785</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026785</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>90.34648051320403</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>33.00589917494217</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>152.6106242705638</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>58.38468441396117</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35416,10 +35416,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N11" t="n">
-        <v>40.81776196807141</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35489,13 +35489,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35659,16 +35659,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831377</v>
+        <v>860.035541581457</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>40.81776196807095</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,7 +35884,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35893,16 +35893,16 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
-        <v>951.4711125638196</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157514</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.4542274390836</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36127,10 +36127,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,28 +36194,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36288,10 +36288,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956049</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37075,10 +37075,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37236,16 +37236,16 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37327,7 +37327,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908053</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37470,7 +37470,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
@@ -37552,7 +37552,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37710,7 +37710,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956006</v>
+        <v>446.726063795601</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512943</v>
@@ -37783,10 +37783,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294903</v>
       </c>
       <c r="M41" t="n">
-        <v>222.835035322636</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,10 +37950,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821539</v>
@@ -38023,13 +38023,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>40.81776196807323</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831377</v>
+        <v>860.035541581457</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
